--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY28"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3947,6 +3947,135 @@
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111858253</v>
+      </c>
+      <c r="B29" t="n">
+        <v>89802</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Grovticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Phaeolus schweinitzii</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>NW Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>682892.0984107114</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6575487.713710153</v>
+      </c>
+      <c r="S29" t="n">
+        <v>50</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Hällmark, stig; På Tallstubbe, "tung-formad"</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Henry Gudmundson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Henry Gudmundson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY29"/>
+  <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>101576989</v>
+        <v>112017087</v>
       </c>
       <c r="B9" t="n">
-        <v>89412</v>
+        <v>8377</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1561,48 +1561,50 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Norr om Sanda, Nacka, Srm</t>
+          <t>N Mellanberg, Erstavik, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682931.966279577</v>
+        <v>682657.7529069204</v>
       </c>
       <c r="R9" t="n">
-        <v>6575458.414300293</v>
+        <v>6575498.94234705</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1626,22 +1628,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1657,22 +1659,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Ronny Fors, Johan Stork, Martin Permats, Jana Eriksson</t>
+          <t>Ronny Fors</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>101575072</v>
+        <v>101576989</v>
       </c>
       <c r="B10" t="n">
-        <v>93375</v>
+        <v>89412</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1681,31 +1683,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2180</v>
+        <v>5442</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1713,10 +1718,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682764.9159736893</v>
+        <v>682931.966279577</v>
       </c>
       <c r="R10" t="n">
-        <v>6575488.23749305</v>
+        <v>6575458.414300293</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1748,7 +1753,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1758,7 +1763,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1786,10 +1791,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>101589135</v>
+        <v>101575072</v>
       </c>
       <c r="B11" t="n">
-        <v>96251</v>
+        <v>93375</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1802,52 +1807,41 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219790</v>
+        <v>2180</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Nacka, Srm</t>
+          <t>Norr om Sanda, Nacka, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>683165.6316249722</v>
+        <v>682764.9159736893</v>
       </c>
       <c r="R11" t="n">
-        <v>6575493.234575982</v>
+        <v>6575488.23749305</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1876,7 +1870,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1886,7 +1880,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1895,33 +1889,29 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Våtmark</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Kristina Bäck, Ronny Fors, Johan Stork, Martin Permats, Jana Eriksson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101574857</v>
+        <v>101589135</v>
       </c>
       <c r="B12" t="n">
-        <v>93375</v>
+        <v>96251</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1934,41 +1924,52 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2180</v>
+        <v>219790</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Norr om Sanda, Srm</t>
+          <t>Nacka, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>682708.4838155493</v>
+        <v>683165.6316249722</v>
       </c>
       <c r="R12" t="n">
-        <v>6575520.834938429</v>
+        <v>6575493.234575982</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1997,7 +1998,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2007,7 +2008,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2016,29 +2017,33 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Våtmark</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Johan Stork, Ronny Fors, Jana Eriksson, Martin Permats</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101578301</v>
+        <v>101574857</v>
       </c>
       <c r="B13" t="n">
-        <v>5113</v>
+        <v>93375</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2051,39 +2056,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100526</v>
+        <v>2180</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Norr om Sanda, Nacka, Srm</t>
+          <t>Norr om Sanda, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>683191.6723238613</v>
+        <v>682708.4838155493</v>
       </c>
       <c r="R13" t="n">
-        <v>6575410.550240339</v>
+        <v>6575520.834938429</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
@@ -2115,7 +2119,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:26</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2125,7 +2129,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:26</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2146,17 +2150,17 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Ronny Fors, Martin Permats, Jana Eriksson</t>
+          <t>Kristina Bäck, Johan Stork, Ronny Fors, Jana Eriksson, Martin Permats</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>101577019</v>
+        <v>101578301</v>
       </c>
       <c r="B14" t="n">
-        <v>89412</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2165,38 +2169,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5442</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2204,10 +2202,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682934.5866666588</v>
+        <v>683191.6723238613</v>
       </c>
       <c r="R14" t="n">
-        <v>6575478.502218832</v>
+        <v>6575410.550240339</v>
       </c>
       <c r="S14" t="n">
         <v>2</v>
@@ -2239,7 +2237,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>14:26</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2249,7 +2247,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>14:26</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2270,17 +2268,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Ronny Fors, Johan Stork, Jana Eriksson, Martin Permats</t>
+          <t>Kristina Bäck, Ronny Fors, Martin Permats, Jana Eriksson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>101589275</v>
+        <v>101577019</v>
       </c>
       <c r="B15" t="n">
-        <v>95519</v>
+        <v>89412</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2289,43 +2287,52 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221945</v>
+        <v>5442</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Nacka, Srm</t>
+          <t>Norr om Sanda, Nacka, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>683165.6316249722</v>
+        <v>682934.5866666588</v>
       </c>
       <c r="R15" t="n">
-        <v>6575493.234575982</v>
+        <v>6575478.502218832</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2354,7 +2361,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2364,7 +2371,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2373,33 +2380,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Våtmark</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Martin Permats</t>
+          <t>Kristina Bäck, Ronny Fors, Johan Stork, Jana Eriksson, Martin Permats</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101577442</v>
+        <v>101589275</v>
       </c>
       <c r="B16" t="n">
-        <v>89412</v>
+        <v>95519</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2408,52 +2411,43 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5442</v>
+        <v>221945</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Norr om Sanda, Nacka, Srm</t>
+          <t>Nacka, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>683020.7230944174</v>
+        <v>683165.6316249722</v>
       </c>
       <c r="R16" t="n">
-        <v>6575478.562571427</v>
+        <v>6575493.234575982</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2482,7 +2476,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2492,7 +2486,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2501,29 +2495,33 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Våtmark</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Ronny Fors, Johan Stork, Martin Permats, Jana Eriksson</t>
+          <t>Martin Permats</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>101577625</v>
+        <v>101577442</v>
       </c>
       <c r="B17" t="n">
-        <v>96251</v>
+        <v>89412</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2532,47 +2530,52 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219790</v>
+        <v>5442</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Norr om Sanda, Nacka, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>683044.7715829043</v>
+        <v>683020.7230944174</v>
       </c>
       <c r="R17" t="n">
-        <v>6575468.974419592</v>
+        <v>6575478.562571427</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2601,7 +2604,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2611,7 +2614,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2620,6 +2623,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2631,17 +2635,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Kristina Bäck, Ronny Fors, Johan Stork, Martin Permats, Jana Eriksson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>101575316</v>
+        <v>101577625</v>
       </c>
       <c r="B18" t="n">
-        <v>56411</v>
+        <v>96251</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2650,45 +2654,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>219790</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Norr om Sanda, Nacka, Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>682761.9994682702</v>
+        <v>683044.7715829043</v>
       </c>
       <c r="R18" t="n">
-        <v>6575474.277554707</v>
+        <v>6575468.974419592</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2717,7 +2723,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2727,12 +2733,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:09</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Hackspår</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2752,17 +2753,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Ronny Fors, Jana Eriksson, Martin Permats, Johan Stork</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>101575253</v>
+        <v>101575316</v>
       </c>
       <c r="B19" t="n">
-        <v>8377</v>
+        <v>56411</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2771,29 +2772,28 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -2804,10 +2804,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>682777.8871047667</v>
+        <v>682761.9994682702</v>
       </c>
       <c r="R19" t="n">
-        <v>6575463.782761714</v>
+        <v>6575474.277554707</v>
       </c>
       <c r="S19" t="n">
         <v>2</v>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2849,7 +2849,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Hackspår</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2858,7 +2863,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2870,17 +2874,17 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Ronny Fors, Johan Stork, Jana Eriksson, Martin Permats</t>
+          <t>Kristina Bäck, Ronny Fors, Jana Eriksson, Martin Permats, Johan Stork</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>101577080</v>
+        <v>101575253</v>
       </c>
       <c r="B20" t="n">
-        <v>4717</v>
+        <v>8377</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2893,21 +2897,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>102306</v>
+        <v>106545</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2922,10 +2926,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>682934.5866666588</v>
+        <v>682777.8871047667</v>
       </c>
       <c r="R20" t="n">
-        <v>6575478.502218832</v>
+        <v>6575463.782761714</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
@@ -2957,7 +2961,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2967,12 +2971,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:43</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Hål efter i gran som är döende</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3000,10 +2999,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>101575295</v>
+        <v>101577080</v>
       </c>
       <c r="B21" t="n">
-        <v>89412</v>
+        <v>4717</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3012,38 +3011,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5442</v>
+        <v>102306</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3051,10 +3044,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>682759.775949874</v>
+        <v>682934.5866666588</v>
       </c>
       <c r="R21" t="n">
-        <v>6575488.501670112</v>
+        <v>6575478.502218832</v>
       </c>
       <c r="S21" t="n">
         <v>2</v>
@@ -3086,7 +3079,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3096,7 +3089,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:43</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Hål efter i gran som är döende</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3117,17 +3115,17 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Jana Eriksson, Ronny Fors, Martin Permats, Johan Stork</t>
+          <t>Kristina Bäck, Ronny Fors, Johan Stork, Jana Eriksson, Martin Permats</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>101577753</v>
+        <v>101575295</v>
       </c>
       <c r="B22" t="n">
-        <v>95519</v>
+        <v>89412</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3136,31 +3134,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221945</v>
+        <v>5442</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3168,10 +3173,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>683078.6567980717</v>
+        <v>682759.775949874</v>
       </c>
       <c r="R22" t="n">
-        <v>6575468.050526729</v>
+        <v>6575488.501670112</v>
       </c>
       <c r="S22" t="n">
         <v>2</v>
@@ -3203,7 +3208,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3213,7 +3218,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3234,17 +3239,17 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Ronny Fors, Johan Stork, Martin Permats, Jana Eriksson</t>
+          <t>Kristina Bäck, Jana Eriksson, Ronny Fors, Martin Permats, Johan Stork</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>101577998</v>
+        <v>101577753</v>
       </c>
       <c r="B23" t="n">
-        <v>4717</v>
+        <v>95519</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3257,32 +3262,27 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>102306</v>
+        <v>221945</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3290,10 +3290,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>683132.831303214</v>
+        <v>683078.6567980717</v>
       </c>
       <c r="R23" t="n">
-        <v>6575471.68927494</v>
+        <v>6575468.050526729</v>
       </c>
       <c r="S23" t="n">
         <v>2</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3356,17 +3356,17 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Ronny Fors, Johan Stork, Jana Eriksson, Martin Permats</t>
+          <t>Kristina Bäck, Ronny Fors, Johan Stork, Martin Permats, Jana Eriksson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>101575063</v>
+        <v>101577998</v>
       </c>
       <c r="B24" t="n">
-        <v>8367</v>
+        <v>4717</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3379,24 +3379,25 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106554</v>
+        <v>102306</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
@@ -3404,19 +3405,20 @@
           <t>äldre gnagspår</t>
         </is>
       </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Sanda, norr om, Srm</t>
+          <t>Norr om Sanda, Nacka, Srm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>682734.8529345258</v>
+        <v>683132.831303214</v>
       </c>
       <c r="R24" t="n">
-        <v>6575494.97837727</v>
+        <v>6575471.68927494</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3445,7 +3447,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3455,7 +3457,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3464,28 +3466,29 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Johan Stork</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Johan Stork</t>
+          <t>Kristina Bäck, Ronny Fors, Johan Stork, Jana Eriksson, Martin Permats</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>101577329</v>
+        <v>101575063</v>
       </c>
       <c r="B25" t="n">
-        <v>93375</v>
+        <v>8367</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3498,36 +3501,41 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2180</v>
+        <v>106554</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Sanda, norr om, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>682951.9222491342</v>
+        <v>682734.8529345258</v>
       </c>
       <c r="R25" t="n">
-        <v>6575448.628163522</v>
+        <v>6575494.97837727</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3596,7 +3604,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>101576764</v>
+        <v>101577329</v>
       </c>
       <c r="B26" t="n">
         <v>93375</v>
@@ -3638,10 +3646,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>682892.7275595821</v>
+        <v>682951.9222491342</v>
       </c>
       <c r="R26" t="n">
-        <v>6575495.933338026</v>
+        <v>6575448.628163522</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3710,10 +3718,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>101576478</v>
+        <v>101576764</v>
       </c>
       <c r="B27" t="n">
-        <v>89412</v>
+        <v>93375</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3722,48 +3730,40 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5442</v>
+        <v>2180</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Sanda, norr om, Srm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>682931.6159086931</v>
+        <v>682892.7275595821</v>
       </c>
       <c r="R27" t="n">
-        <v>6575476.311617732</v>
+        <v>6575495.933338026</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3832,57 +3832,63 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>101574878</v>
+        <v>101576478</v>
       </c>
       <c r="B28" t="n">
-        <v>93375</v>
+        <v>89412</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2180</v>
+        <v>5442</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Norr om Sanda, Nacka, Srm</t>
+          <t>Sanda, norr om, Srm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>682710.461164355</v>
+        <v>682931.6159086931</v>
       </c>
       <c r="R28" t="n">
-        <v>6575511.717336961</v>
+        <v>6575476.311617732</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3911,7 +3917,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3921,7 +3927,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3930,33 +3936,32 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Johan Stork</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Kristina Bäck, Jana Eriksson, Johan Stork, Ronny Fors, Martin Permats</t>
+          <t>Johan Stork</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111858253</v>
+        <v>101574878</v>
       </c>
       <c r="B29" t="n">
-        <v>89802</v>
+        <v>93375</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3965,48 +3970,41 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5420</v>
+        <v>2180</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>NW Erstavik, Srm</t>
+          <t>Norr om Sanda, Nacka, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>682892.0984107114</v>
+        <v>682710.461164355</v>
       </c>
       <c r="R29" t="n">
-        <v>6575487.713710153</v>
+        <v>6575511.717336961</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4030,27 +4028,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-09-02</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-09-02</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Hällmark, stig; På Tallstubbe, "tung-formad"</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4066,15 +4059,1676 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
+          <t>Kristina Bäck</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Kristina Bäck, Jana Eriksson, Johan Stork, Ronny Fors, Martin Permats</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111858253</v>
+      </c>
+      <c r="B30" t="n">
+        <v>89802</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Grovticka</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Phaeolus schweinitzii</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>NW Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>682892.0984107114</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6575487.713710153</v>
+      </c>
+      <c r="S30" t="n">
+        <v>50</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Hällmark, stig; På Tallstubbe, "tung-formad"</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
           <t>Henry Gudmundson</t>
         </is>
       </c>
-      <c r="AX29" t="inlineStr">
+      <c r="AX30" t="inlineStr">
         <is>
           <t>Henry Gudmundson</t>
         </is>
       </c>
-      <c r="AY29" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112017430</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90709</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>682793.1335561723</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6575519.79500053</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112017447</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>682844.1942409466</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6575513.554896963</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112017326</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>682713.7813606198</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6575496.010644327</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112017465</v>
+      </c>
+      <c r="B34" t="n">
+        <v>88032</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6276</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Goliatmusseron</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tricholoma matsutake</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>682896.4696766059</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6575514.027787391</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112017512</v>
+      </c>
+      <c r="B35" t="n">
+        <v>88032</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6276</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Goliatmusseron</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Tricholoma matsutake</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>683036.8460961942</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6575484.458868909</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112017413</v>
+      </c>
+      <c r="B36" t="n">
+        <v>90709</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>682733.9332997696</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6575482.138353716</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112017130</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>682695.3118543178</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6575453.662799283</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112017224</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>682702.748818734</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6575490.872789856</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112017392</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>682712.0453105029</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6575457.539765021</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112017534</v>
+      </c>
+      <c r="B40" t="n">
+        <v>87992</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1593</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Lakritsmusseron</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Tricholoma apium</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>683072.5368938858</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6575477.991881827</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112017252</v>
+      </c>
+      <c r="B41" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>682710.810501094</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6575493.820233095</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112017159</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>682698.5384611045</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6575482.480741166</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112017488</v>
+      </c>
+      <c r="B43" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>N Mellanberg, Erstavik, Srm</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>682955.8308828628</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6575473.896637772</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Nacka</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Ronny Fors</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -4200,10 +4200,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112017430</v>
+        <v>112017224</v>
       </c>
       <c r="B31" t="n">
-        <v>90709</v>
+        <v>90678</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4212,25 +4212,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4243,10 +4243,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>682793.1335561723</v>
+        <v>682702.748818734</v>
       </c>
       <c r="R31" t="n">
-        <v>6575519.79500053</v>
+        <v>6575490.872789856</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112017326</v>
+        <v>112017430</v>
       </c>
       <c r="B33" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4448,21 +4448,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4475,10 +4475,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>682713.7813606198</v>
+        <v>682793.1335561723</v>
       </c>
       <c r="R33" t="n">
-        <v>6575496.010644327</v>
+        <v>6575519.79500053</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112017465</v>
+        <v>112017159</v>
       </c>
       <c r="B34" t="n">
-        <v>88032</v>
+        <v>90710</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4560,37 +4560,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6276</v>
+        <v>5449</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4599,10 +4591,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>682896.4696766059</v>
+        <v>682698.5384611045</v>
       </c>
       <c r="R34" t="n">
-        <v>6575514.027787391</v>
+        <v>6575482.480741166</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4672,10 +4664,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112017512</v>
+        <v>112017130</v>
       </c>
       <c r="B35" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4684,37 +4676,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
@@ -4723,10 +4707,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>683036.8460961942</v>
+        <v>682695.3118543178</v>
       </c>
       <c r="R35" t="n">
-        <v>6575484.458868909</v>
+        <v>6575453.662799283</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4796,10 +4780,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112017413</v>
+        <v>112017512</v>
       </c>
       <c r="B36" t="n">
-        <v>90709</v>
+        <v>88032</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4808,29 +4792,37 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5448</v>
+        <v>6276</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
@@ -4839,10 +4831,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>682733.9332997696</v>
+        <v>683036.8460961942</v>
       </c>
       <c r="R36" t="n">
-        <v>6575482.138353716</v>
+        <v>6575484.458868909</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4912,10 +4904,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112017130</v>
+        <v>112017465</v>
       </c>
       <c r="B37" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4924,29 +4916,37 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
@@ -4955,10 +4955,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>682695.3118543178</v>
+        <v>682896.4696766059</v>
       </c>
       <c r="R37" t="n">
-        <v>6575453.662799283</v>
+        <v>6575514.027787391</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112017224</v>
+        <v>112017326</v>
       </c>
       <c r="B38" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5040,25 +5040,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5071,10 +5071,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>682702.748818734</v>
+        <v>682713.7813606198</v>
       </c>
       <c r="R38" t="n">
-        <v>6575490.872789856</v>
+        <v>6575496.010644327</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5260,10 +5260,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112017534</v>
+        <v>112017413</v>
       </c>
       <c r="B40" t="n">
-        <v>87992</v>
+        <v>90709</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5272,37 +5272,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1593</v>
+        <v>5448</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
@@ -5311,10 +5303,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>683072.5368938858</v>
+        <v>682733.9332997696</v>
       </c>
       <c r="R40" t="n">
-        <v>6575477.991881827</v>
+        <v>6575482.138353716</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5384,10 +5376,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112017252</v>
+        <v>112017488</v>
       </c>
       <c r="B41" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5400,21 +5392,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5427,10 +5419,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>682710.810501094</v>
+        <v>682955.8308828628</v>
       </c>
       <c r="R41" t="n">
-        <v>6575493.820233095</v>
+        <v>6575473.896637772</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5500,10 +5492,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112017159</v>
+        <v>112017534</v>
       </c>
       <c r="B42" t="n">
-        <v>90710</v>
+        <v>87992</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5512,29 +5504,37 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5449</v>
+        <v>1593</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
@@ -5543,10 +5543,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>682698.5384611045</v>
+        <v>683072.5368938858</v>
       </c>
       <c r="R42" t="n">
-        <v>6575482.480741166</v>
+        <v>6575477.991881827</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5616,10 +5616,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112017488</v>
+        <v>112017252</v>
       </c>
       <c r="B43" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5632,21 +5632,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5659,10 +5659,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>682955.8308828628</v>
+        <v>682710.810501094</v>
       </c>
       <c r="R43" t="n">
-        <v>6575473.896637772</v>
+        <v>6575493.820233095</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -4200,7 +4200,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112017224</v>
+        <v>112017488</v>
       </c>
       <c r="B31" t="n">
         <v>90678</v>
@@ -4243,10 +4243,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>682702.748818734</v>
+        <v>682955.8308828628</v>
       </c>
       <c r="R31" t="n">
-        <v>6575490.872789856</v>
+        <v>6575473.896637772</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4316,10 +4316,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112017447</v>
+        <v>112017430</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4328,25 +4328,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4359,10 +4359,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>682844.1942409466</v>
+        <v>682793.1335561723</v>
       </c>
       <c r="R32" t="n">
-        <v>6575513.554896963</v>
+        <v>6575519.79500053</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112017430</v>
+        <v>112017534</v>
       </c>
       <c r="B33" t="n">
-        <v>90709</v>
+        <v>87992</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4444,29 +4444,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5448</v>
+        <v>1593</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4475,10 +4483,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>682793.1335561723</v>
+        <v>683072.5368938858</v>
       </c>
       <c r="R33" t="n">
-        <v>6575519.79500053</v>
+        <v>6575477.991881827</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4548,10 +4556,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112017159</v>
+        <v>112017512</v>
       </c>
       <c r="B34" t="n">
-        <v>90710</v>
+        <v>88032</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4560,29 +4568,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5449</v>
+        <v>6276</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4591,10 +4607,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>682698.5384611045</v>
+        <v>683036.8460961942</v>
       </c>
       <c r="R34" t="n">
-        <v>6575482.480741166</v>
+        <v>6575484.458868909</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4664,10 +4680,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112017130</v>
+        <v>112017326</v>
       </c>
       <c r="B35" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4676,25 +4692,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4707,10 +4723,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>682695.3118543178</v>
+        <v>682713.7813606198</v>
       </c>
       <c r="R35" t="n">
-        <v>6575453.662799283</v>
+        <v>6575496.010644327</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4780,7 +4796,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112017512</v>
+        <v>112017465</v>
       </c>
       <c r="B36" t="n">
         <v>88032</v>
@@ -4815,7 +4831,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4831,10 +4847,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>683036.8460961942</v>
+        <v>682896.4696766059</v>
       </c>
       <c r="R36" t="n">
-        <v>6575484.458868909</v>
+        <v>6575514.027787391</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4904,10 +4920,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112017465</v>
+        <v>112017392</v>
       </c>
       <c r="B37" t="n">
-        <v>88032</v>
+        <v>90710</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4916,37 +4932,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6276</v>
+        <v>5449</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
@@ -4955,10 +4963,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>682896.4696766059</v>
+        <v>682712.0453105029</v>
       </c>
       <c r="R37" t="n">
-        <v>6575514.027787391</v>
+        <v>6575457.539765021</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5028,10 +5036,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112017326</v>
+        <v>112017413</v>
       </c>
       <c r="B38" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5044,21 +5052,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5071,10 +5079,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>682713.7813606198</v>
+        <v>682733.9332997696</v>
       </c>
       <c r="R38" t="n">
-        <v>6575496.010644327</v>
+        <v>6575482.138353716</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5144,10 +5152,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112017392</v>
+        <v>112017130</v>
       </c>
       <c r="B39" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5156,25 +5164,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5187,10 +5195,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>682712.0453105029</v>
+        <v>682695.3118543178</v>
       </c>
       <c r="R39" t="n">
-        <v>6575457.539765021</v>
+        <v>6575453.662799283</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5260,10 +5268,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112017413</v>
+        <v>112017447</v>
       </c>
       <c r="B40" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5272,25 +5280,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5303,10 +5311,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>682733.9332997696</v>
+        <v>682844.1942409466</v>
       </c>
       <c r="R40" t="n">
-        <v>6575482.138353716</v>
+        <v>6575513.554896963</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5376,10 +5384,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112017488</v>
+        <v>112017252</v>
       </c>
       <c r="B41" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5392,21 +5400,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5419,10 +5427,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>682955.8308828628</v>
+        <v>682710.810501094</v>
       </c>
       <c r="R41" t="n">
-        <v>6575473.896637772</v>
+        <v>6575493.820233095</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5492,10 +5500,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112017534</v>
+        <v>112017159</v>
       </c>
       <c r="B42" t="n">
-        <v>87992</v>
+        <v>90710</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5504,37 +5512,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1593</v>
+        <v>5449</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
@@ -5543,10 +5543,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>683072.5368938858</v>
+        <v>682698.5384611045</v>
       </c>
       <c r="R42" t="n">
-        <v>6575477.991881827</v>
+        <v>6575482.480741166</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5616,10 +5616,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112017252</v>
+        <v>112017224</v>
       </c>
       <c r="B43" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5632,21 +5632,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5659,10 +5659,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>682710.810501094</v>
+        <v>682702.748818734</v>
       </c>
       <c r="R43" t="n">
-        <v>6575493.820233095</v>
+        <v>6575490.872789856</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -4200,10 +4200,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112017488</v>
+        <v>112017392</v>
       </c>
       <c r="B31" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4212,25 +4212,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4243,10 +4243,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>682955.8308828628</v>
+        <v>682712.0453105029</v>
       </c>
       <c r="R31" t="n">
-        <v>6575473.896637772</v>
+        <v>6575457.539765021</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4316,10 +4316,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112017430</v>
+        <v>112017326</v>
       </c>
       <c r="B32" t="n">
-        <v>90709</v>
+        <v>90660</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4332,21 +4332,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4359,10 +4359,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>682793.1335561723</v>
+        <v>682713.7813606198</v>
       </c>
       <c r="R32" t="n">
-        <v>6575519.79500053</v>
+        <v>6575496.010644327</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112017534</v>
+        <v>112017447</v>
       </c>
       <c r="B33" t="n">
-        <v>87992</v>
+        <v>90666</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4444,37 +4444,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1593</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4483,10 +4475,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>683072.5368938858</v>
+        <v>682844.1942409466</v>
       </c>
       <c r="R33" t="n">
-        <v>6575477.991881827</v>
+        <v>6575513.554896963</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4556,10 +4548,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112017512</v>
+        <v>112017224</v>
       </c>
       <c r="B34" t="n">
-        <v>88032</v>
+        <v>90678</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4568,37 +4560,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4607,10 +4591,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>683036.8460961942</v>
+        <v>682702.748818734</v>
       </c>
       <c r="R34" t="n">
-        <v>6575484.458868909</v>
+        <v>6575490.872789856</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4680,10 +4664,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112017326</v>
+        <v>112017465</v>
       </c>
       <c r="B35" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4692,29 +4676,37 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
@@ -4723,10 +4715,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>682713.7813606198</v>
+        <v>682896.4696766059</v>
       </c>
       <c r="R35" t="n">
-        <v>6575496.010644327</v>
+        <v>6575514.027787391</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4796,10 +4788,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112017465</v>
+        <v>112017534</v>
       </c>
       <c r="B36" t="n">
-        <v>88032</v>
+        <v>87992</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4812,26 +4804,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6276</v>
+        <v>1593</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Jul.Schäff.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4847,10 +4839,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>682896.4696766059</v>
+        <v>683072.5368938858</v>
       </c>
       <c r="R36" t="n">
-        <v>6575514.027787391</v>
+        <v>6575477.991881827</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4920,10 +4912,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112017392</v>
+        <v>112017130</v>
       </c>
       <c r="B37" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4932,25 +4924,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4963,10 +4955,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>682712.0453105029</v>
+        <v>682695.3118543178</v>
       </c>
       <c r="R37" t="n">
-        <v>6575457.539765021</v>
+        <v>6575453.662799283</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5036,10 +5028,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112017413</v>
+        <v>112017488</v>
       </c>
       <c r="B38" t="n">
-        <v>90709</v>
+        <v>90678</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5048,25 +5040,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5079,10 +5071,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>682733.9332997696</v>
+        <v>682955.8308828628</v>
       </c>
       <c r="R38" t="n">
-        <v>6575482.138353716</v>
+        <v>6575473.896637772</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5152,10 +5144,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112017130</v>
+        <v>112017159</v>
       </c>
       <c r="B39" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5164,25 +5156,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5195,10 +5187,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>682695.3118543178</v>
+        <v>682698.5384611045</v>
       </c>
       <c r="R39" t="n">
-        <v>6575453.662799283</v>
+        <v>6575482.480741166</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5268,10 +5260,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112017447</v>
+        <v>112017512</v>
       </c>
       <c r="B40" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5280,29 +5272,37 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
@@ -5311,10 +5311,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>682844.1942409466</v>
+        <v>683036.8460961942</v>
       </c>
       <c r="R40" t="n">
-        <v>6575513.554896963</v>
+        <v>6575484.458868909</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5384,10 +5384,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112017252</v>
+        <v>112017413</v>
       </c>
       <c r="B41" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5396,25 +5396,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5427,10 +5427,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>682710.810501094</v>
+        <v>682733.9332997696</v>
       </c>
       <c r="R41" t="n">
-        <v>6575493.820233095</v>
+        <v>6575482.138353716</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112017159</v>
+        <v>112017430</v>
       </c>
       <c r="B42" t="n">
-        <v>90710</v>
+        <v>90709</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5516,21 +5516,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5543,10 +5543,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>682698.5384611045</v>
+        <v>682793.1335561723</v>
       </c>
       <c r="R42" t="n">
-        <v>6575482.480741166</v>
+        <v>6575519.79500053</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5616,10 +5616,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112017224</v>
+        <v>112017252</v>
       </c>
       <c r="B43" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5632,21 +5632,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5659,10 +5659,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>682702.748818734</v>
+        <v>682710.810501094</v>
       </c>
       <c r="R43" t="n">
-        <v>6575490.872789856</v>
+        <v>6575493.820233095</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -5144,10 +5144,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112017159</v>
+        <v>112017512</v>
       </c>
       <c r="B39" t="n">
-        <v>90710</v>
+        <v>88032</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5156,29 +5156,37 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5449</v>
+        <v>6276</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -5187,10 +5195,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>682698.5384611045</v>
+        <v>683036.8460961942</v>
       </c>
       <c r="R39" t="n">
-        <v>6575482.480741166</v>
+        <v>6575484.458868909</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5260,10 +5268,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112017512</v>
+        <v>112017159</v>
       </c>
       <c r="B40" t="n">
-        <v>88032</v>
+        <v>90710</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5272,37 +5280,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6276</v>
+        <v>5449</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
@@ -5311,10 +5311,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>683036.8460961942</v>
+        <v>682698.5384611045</v>
       </c>
       <c r="R40" t="n">
-        <v>6575484.458868909</v>
+        <v>6575482.480741166</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -4200,10 +4200,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112017392</v>
+        <v>112017447</v>
       </c>
       <c r="B31" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4212,25 +4212,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4243,10 +4243,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>682712.0453105029</v>
+        <v>682844.1942409466</v>
       </c>
       <c r="R31" t="n">
-        <v>6575457.539765021</v>
+        <v>6575513.554896963</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4316,10 +4316,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112017326</v>
+        <v>112017488</v>
       </c>
       <c r="B32" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4328,25 +4328,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4359,10 +4359,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>682713.7813606198</v>
+        <v>682955.8308828628</v>
       </c>
       <c r="R32" t="n">
-        <v>6575496.010644327</v>
+        <v>6575473.896637772</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112017447</v>
+        <v>112017534</v>
       </c>
       <c r="B33" t="n">
-        <v>90666</v>
+        <v>87992</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4444,29 +4444,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4364</v>
+        <v>1593</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4475,10 +4483,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>682844.1942409466</v>
+        <v>683072.5368938858</v>
       </c>
       <c r="R33" t="n">
-        <v>6575513.554896963</v>
+        <v>6575477.991881827</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4548,10 +4556,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112017224</v>
+        <v>112017512</v>
       </c>
       <c r="B34" t="n">
-        <v>90678</v>
+        <v>88032</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4560,29 +4568,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4591,10 +4607,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>682702.748818734</v>
+        <v>683036.8460961942</v>
       </c>
       <c r="R34" t="n">
-        <v>6575490.872789856</v>
+        <v>6575484.458868909</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4788,10 +4804,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112017534</v>
+        <v>112017252</v>
       </c>
       <c r="B36" t="n">
-        <v>87992</v>
+        <v>90666</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4800,37 +4816,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1593</v>
+        <v>4364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
@@ -4839,10 +4847,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>683072.5368938858</v>
+        <v>682710.810501094</v>
       </c>
       <c r="R36" t="n">
-        <v>6575477.991881827</v>
+        <v>6575493.820233095</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4912,10 +4920,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112017130</v>
+        <v>112017392</v>
       </c>
       <c r="B37" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4924,25 +4932,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4955,10 +4963,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>682695.3118543178</v>
+        <v>682712.0453105029</v>
       </c>
       <c r="R37" t="n">
-        <v>6575453.662799283</v>
+        <v>6575457.539765021</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5028,10 +5036,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112017488</v>
+        <v>112017326</v>
       </c>
       <c r="B38" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5040,25 +5048,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5071,10 +5079,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>682955.8308828628</v>
+        <v>682713.7813606198</v>
       </c>
       <c r="R38" t="n">
-        <v>6575473.896637772</v>
+        <v>6575496.010644327</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5144,10 +5152,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112017512</v>
+        <v>112017413</v>
       </c>
       <c r="B39" t="n">
-        <v>88032</v>
+        <v>90709</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5156,37 +5164,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6276</v>
+        <v>5448</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -5195,10 +5195,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>683036.8460961942</v>
+        <v>682733.9332997696</v>
       </c>
       <c r="R39" t="n">
-        <v>6575484.458868909</v>
+        <v>6575482.138353716</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5268,10 +5268,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112017159</v>
+        <v>112017224</v>
       </c>
       <c r="B40" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5280,25 +5280,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5311,10 +5311,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>682698.5384611045</v>
+        <v>682702.748818734</v>
       </c>
       <c r="R40" t="n">
-        <v>6575482.480741166</v>
+        <v>6575490.872789856</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112017413</v>
+        <v>112017430</v>
       </c>
       <c r="B41" t="n">
         <v>90709</v>
@@ -5427,10 +5427,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>682733.9332997696</v>
+        <v>682793.1335561723</v>
       </c>
       <c r="R41" t="n">
-        <v>6575482.138353716</v>
+        <v>6575519.79500053</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112017430</v>
+        <v>112017159</v>
       </c>
       <c r="B42" t="n">
-        <v>90709</v>
+        <v>90710</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5516,21 +5516,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5448</v>
+        <v>5449</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5543,10 +5543,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>682793.1335561723</v>
+        <v>682698.5384611045</v>
       </c>
       <c r="R42" t="n">
-        <v>6575519.79500053</v>
+        <v>6575482.480741166</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112017252</v>
+        <v>112017130</v>
       </c>
       <c r="B43" t="n">
         <v>90666</v>
@@ -5659,10 +5659,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>682710.810501094</v>
+        <v>682695.3118543178</v>
       </c>
       <c r="R43" t="n">
-        <v>6575493.820233095</v>
+        <v>6575453.662799283</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682657.7529069204</v>
+        <v>682658</v>
       </c>
       <c r="R9" t="n">
-        <v>6575498.94234705</v>
+        <v>6575499</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1631,19 +1631,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -4122,10 +4112,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>682892.0984107114</v>
+        <v>682892</v>
       </c>
       <c r="R30" t="n">
-        <v>6575487.713710153</v>
+        <v>6575488</v>
       </c>
       <c r="S30" t="n">
         <v>50</v>
@@ -4155,19 +4145,9 @@
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-02</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -4200,10 +4180,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112017447</v>
+        <v>112017413</v>
       </c>
       <c r="B31" t="n">
-        <v>90666</v>
+        <v>90709</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4212,25 +4192,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4243,10 +4223,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>682844.1942409466</v>
+        <v>682734</v>
       </c>
       <c r="R31" t="n">
-        <v>6575513.554896963</v>
+        <v>6575482</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4276,19 +4256,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4316,10 +4286,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112017488</v>
+        <v>112017392</v>
       </c>
       <c r="B32" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4328,25 +4298,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4359,10 +4329,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>682955.8308828628</v>
+        <v>682712</v>
       </c>
       <c r="R32" t="n">
-        <v>6575473.896637772</v>
+        <v>6575458</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4392,19 +4362,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4483,10 +4443,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>683072.5368938858</v>
+        <v>683073</v>
       </c>
       <c r="R33" t="n">
-        <v>6575477.991881827</v>
+        <v>6575478</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4516,19 +4476,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4556,10 +4506,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112017512</v>
+        <v>112017447</v>
       </c>
       <c r="B34" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4568,37 +4518,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4607,10 +4549,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>683036.8460961942</v>
+        <v>682844</v>
       </c>
       <c r="R34" t="n">
-        <v>6575484.458868909</v>
+        <v>6575514</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4640,19 +4582,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4680,7 +4612,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112017465</v>
+        <v>112017512</v>
       </c>
       <c r="B35" t="n">
         <v>88032</v>
@@ -4715,7 +4647,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4731,10 +4663,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>682896.4696766059</v>
+        <v>683037</v>
       </c>
       <c r="R35" t="n">
-        <v>6575514.027787391</v>
+        <v>6575484</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4764,19 +4696,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4804,10 +4726,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112017252</v>
+        <v>112017488</v>
       </c>
       <c r="B36" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4820,21 +4742,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4847,10 +4769,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>682710.810501094</v>
+        <v>682956</v>
       </c>
       <c r="R36" t="n">
-        <v>6575493.820233095</v>
+        <v>6575474</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4880,19 +4802,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4920,10 +4832,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112017392</v>
+        <v>112017130</v>
       </c>
       <c r="B37" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4932,25 +4844,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4963,10 +4875,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>682712.0453105029</v>
+        <v>682695</v>
       </c>
       <c r="R37" t="n">
-        <v>6575457.539765021</v>
+        <v>6575454</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4996,19 +4908,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5036,10 +4938,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112017326</v>
+        <v>112017252</v>
       </c>
       <c r="B38" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5048,25 +4950,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5079,10 +4981,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>682713.7813606198</v>
+        <v>682711</v>
       </c>
       <c r="R38" t="n">
-        <v>6575496.010644327</v>
+        <v>6575494</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5112,19 +5014,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5152,7 +5044,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112017413</v>
+        <v>112017430</v>
       </c>
       <c r="B39" t="n">
         <v>90709</v>
@@ -5195,10 +5087,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>682733.9332997696</v>
+        <v>682793</v>
       </c>
       <c r="R39" t="n">
-        <v>6575482.138353716</v>
+        <v>6575520</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5228,19 +5120,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5268,10 +5150,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112017224</v>
+        <v>112017465</v>
       </c>
       <c r="B40" t="n">
-        <v>90678</v>
+        <v>88032</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5280,29 +5162,37 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
@@ -5311,10 +5201,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>682702.748818734</v>
+        <v>682896</v>
       </c>
       <c r="R40" t="n">
-        <v>6575490.872789856</v>
+        <v>6575514</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5344,19 +5234,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5384,10 +5264,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112017430</v>
+        <v>112017224</v>
       </c>
       <c r="B41" t="n">
-        <v>90709</v>
+        <v>90678</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5396,25 +5276,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5427,10 +5307,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>682793.1335561723</v>
+        <v>682703</v>
       </c>
       <c r="R41" t="n">
-        <v>6575519.79500053</v>
+        <v>6575491</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5460,19 +5340,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5543,10 +5413,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>682698.5384611045</v>
+        <v>682699</v>
       </c>
       <c r="R42" t="n">
-        <v>6575482.480741166</v>
+        <v>6575482</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5576,19 +5446,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5616,10 +5476,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112017130</v>
+        <v>112017326</v>
       </c>
       <c r="B43" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5628,25 +5488,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5659,10 +5519,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>682695.3118543178</v>
+        <v>682714</v>
       </c>
       <c r="R43" t="n">
-        <v>6575453.662799283</v>
+        <v>6575496</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5692,19 +5552,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -4064,7 +4064,7 @@
         <v>111858253</v>
       </c>
       <c r="B30" t="n">
-        <v>89802</v>
+        <v>89936</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4180,10 +4180,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112017413</v>
+        <v>112017534</v>
       </c>
       <c r="B31" t="n">
-        <v>90709</v>
+        <v>88126</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4192,29 +4192,37 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5448</v>
+        <v>1593</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4223,10 +4231,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>682734</v>
+        <v>683073</v>
       </c>
       <c r="R31" t="n">
-        <v>6575482</v>
+        <v>6575478</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4286,10 +4294,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112017392</v>
+        <v>112017447</v>
       </c>
       <c r="B32" t="n">
-        <v>90710</v>
+        <v>90800</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4298,25 +4306,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4329,10 +4337,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>682712</v>
+        <v>682844</v>
       </c>
       <c r="R32" t="n">
-        <v>6575458</v>
+        <v>6575514</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4392,10 +4400,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112017534</v>
+        <v>112017413</v>
       </c>
       <c r="B33" t="n">
-        <v>87992</v>
+        <v>90843</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4404,37 +4412,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1593</v>
+        <v>5448</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4443,10 +4443,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>683073</v>
+        <v>682734</v>
       </c>
       <c r="R33" t="n">
-        <v>6575478</v>
+        <v>6575482</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112017447</v>
+        <v>112017252</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>682844</v>
+        <v>682711</v>
       </c>
       <c r="R34" t="n">
-        <v>6575514</v>
+        <v>6575494</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4612,10 +4612,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112017512</v>
+        <v>112017488</v>
       </c>
       <c r="B35" t="n">
-        <v>88032</v>
+        <v>90812</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4624,37 +4624,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
@@ -4663,10 +4655,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>683037</v>
+        <v>682956</v>
       </c>
       <c r="R35" t="n">
-        <v>6575484</v>
+        <v>6575474</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4726,10 +4718,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112017488</v>
+        <v>112017392</v>
       </c>
       <c r="B36" t="n">
-        <v>90678</v>
+        <v>90844</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4738,25 +4730,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4769,10 +4761,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>682956</v>
+        <v>682712</v>
       </c>
       <c r="R36" t="n">
-        <v>6575474</v>
+        <v>6575458</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4832,10 +4824,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112017130</v>
+        <v>112017512</v>
       </c>
       <c r="B37" t="n">
-        <v>90666</v>
+        <v>88166</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4844,29 +4836,37 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>682695</v>
+        <v>683037</v>
       </c>
       <c r="R37" t="n">
-        <v>6575454</v>
+        <v>6575484</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112017252</v>
+        <v>112017224</v>
       </c>
       <c r="B38" t="n">
-        <v>90666</v>
+        <v>90812</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4954,21 +4954,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4981,10 +4981,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>682711</v>
+        <v>682703</v>
       </c>
       <c r="R38" t="n">
-        <v>6575494</v>
+        <v>6575491</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5044,10 +5044,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112017430</v>
+        <v>112017159</v>
       </c>
       <c r="B39" t="n">
-        <v>90709</v>
+        <v>90844</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5060,21 +5060,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5448</v>
+        <v>5449</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5087,10 +5087,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>682793</v>
+        <v>682699</v>
       </c>
       <c r="R39" t="n">
-        <v>6575520</v>
+        <v>6575482</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>112017465</v>
       </c>
       <c r="B40" t="n">
-        <v>88032</v>
+        <v>88166</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5264,10 +5264,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112017224</v>
+        <v>112017430</v>
       </c>
       <c r="B41" t="n">
-        <v>90678</v>
+        <v>90843</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5276,25 +5276,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5307,10 +5307,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>682703</v>
+        <v>682793</v>
       </c>
       <c r="R41" t="n">
-        <v>6575491</v>
+        <v>6575520</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5370,10 +5370,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112017159</v>
+        <v>112017130</v>
       </c>
       <c r="B42" t="n">
-        <v>90710</v>
+        <v>90800</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5382,25 +5382,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5413,10 +5413,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>682699</v>
+        <v>682695</v>
       </c>
       <c r="R42" t="n">
-        <v>6575482</v>
+        <v>6575454</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5479,7 +5479,7 @@
         <v>112017326</v>
       </c>
       <c r="B43" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -4180,10 +4180,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112017534</v>
+        <v>112017447</v>
       </c>
       <c r="B31" t="n">
-        <v>88126</v>
+        <v>90814</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4192,37 +4192,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1593</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4231,10 +4223,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>683073</v>
+        <v>682844</v>
       </c>
       <c r="R31" t="n">
-        <v>6575478</v>
+        <v>6575514</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4294,10 +4286,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112017447</v>
+        <v>112017534</v>
       </c>
       <c r="B32" t="n">
-        <v>90800</v>
+        <v>88140</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4306,29 +4298,37 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>1593</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4337,10 +4337,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>682844</v>
+        <v>683073</v>
       </c>
       <c r="R32" t="n">
-        <v>6575514</v>
+        <v>6575478</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4400,10 +4400,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112017413</v>
+        <v>112017430</v>
       </c>
       <c r="B33" t="n">
-        <v>90843</v>
+        <v>90857</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4443,10 +4443,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>682734</v>
+        <v>682793</v>
       </c>
       <c r="R33" t="n">
-        <v>6575482</v>
+        <v>6575520</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112017252</v>
+        <v>112017465</v>
       </c>
       <c r="B34" t="n">
-        <v>90800</v>
+        <v>88180</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4518,29 +4518,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4549,10 +4557,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>682711</v>
+        <v>682896</v>
       </c>
       <c r="R34" t="n">
-        <v>6575494</v>
+        <v>6575514</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4612,10 +4620,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112017488</v>
+        <v>112017326</v>
       </c>
       <c r="B35" t="n">
-        <v>90812</v>
+        <v>90808</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4624,25 +4632,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4655,10 +4663,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>682956</v>
+        <v>682714</v>
       </c>
       <c r="R35" t="n">
-        <v>6575474</v>
+        <v>6575496</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4718,10 +4726,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112017392</v>
+        <v>112017252</v>
       </c>
       <c r="B36" t="n">
-        <v>90844</v>
+        <v>90814</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4730,25 +4738,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4761,10 +4769,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>682712</v>
+        <v>682711</v>
       </c>
       <c r="R36" t="n">
-        <v>6575458</v>
+        <v>6575494</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4824,10 +4832,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112017512</v>
+        <v>112017159</v>
       </c>
       <c r="B37" t="n">
-        <v>88166</v>
+        <v>90858</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4836,37 +4844,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6276</v>
+        <v>5449</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>683037</v>
+        <v>682699</v>
       </c>
       <c r="R37" t="n">
-        <v>6575484</v>
+        <v>6575482</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112017224</v>
+        <v>112017413</v>
       </c>
       <c r="B38" t="n">
-        <v>90812</v>
+        <v>90857</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4950,25 +4950,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4981,10 +4981,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>682703</v>
+        <v>682734</v>
       </c>
       <c r="R38" t="n">
-        <v>6575491</v>
+        <v>6575482</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5044,10 +5044,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112017159</v>
+        <v>112017512</v>
       </c>
       <c r="B39" t="n">
-        <v>90844</v>
+        <v>88180</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5056,29 +5056,37 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5449</v>
+        <v>6276</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -5087,10 +5095,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>682699</v>
+        <v>683037</v>
       </c>
       <c r="R39" t="n">
-        <v>6575482</v>
+        <v>6575484</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5150,10 +5158,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112017465</v>
+        <v>112017488</v>
       </c>
       <c r="B40" t="n">
-        <v>88166</v>
+        <v>90826</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5162,37 +5170,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
@@ -5201,10 +5201,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>682896</v>
+        <v>682956</v>
       </c>
       <c r="R40" t="n">
-        <v>6575514</v>
+        <v>6575474</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5264,10 +5264,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112017430</v>
+        <v>112017392</v>
       </c>
       <c r="B41" t="n">
-        <v>90843</v>
+        <v>90858</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5280,21 +5280,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5448</v>
+        <v>5449</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5307,10 +5307,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>682793</v>
+        <v>682712</v>
       </c>
       <c r="R41" t="n">
-        <v>6575520</v>
+        <v>6575458</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5370,10 +5370,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112017130</v>
+        <v>112017224</v>
       </c>
       <c r="B42" t="n">
-        <v>90800</v>
+        <v>90826</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5386,21 +5386,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5413,10 +5413,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>682695</v>
+        <v>682703</v>
       </c>
       <c r="R42" t="n">
-        <v>6575454</v>
+        <v>6575491</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5476,10 +5476,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112017326</v>
+        <v>112017130</v>
       </c>
       <c r="B43" t="n">
-        <v>90794</v>
+        <v>90814</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5488,25 +5488,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>682714</v>
+        <v>682695</v>
       </c>
       <c r="R43" t="n">
-        <v>6575496</v>
+        <v>6575454</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -4286,10 +4286,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112017534</v>
+        <v>112017392</v>
       </c>
       <c r="B32" t="n">
-        <v>88140</v>
+        <v>90858</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4298,37 +4298,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1593</v>
+        <v>5449</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4337,10 +4329,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>683073</v>
+        <v>682712</v>
       </c>
       <c r="R32" t="n">
-        <v>6575478</v>
+        <v>6575458</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4400,10 +4392,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112017430</v>
+        <v>112017512</v>
       </c>
       <c r="B33" t="n">
-        <v>90857</v>
+        <v>88180</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4412,29 +4404,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5448</v>
+        <v>6276</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4443,10 +4443,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>682793</v>
+        <v>683037</v>
       </c>
       <c r="R33" t="n">
-        <v>6575520</v>
+        <v>6575484</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112017465</v>
+        <v>112017413</v>
       </c>
       <c r="B34" t="n">
-        <v>88180</v>
+        <v>90857</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4518,37 +4518,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6276</v>
+        <v>5448</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4557,10 +4549,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>682896</v>
+        <v>682734</v>
       </c>
       <c r="R34" t="n">
-        <v>6575514</v>
+        <v>6575482</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4620,10 +4612,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112017326</v>
+        <v>112017488</v>
       </c>
       <c r="B35" t="n">
-        <v>90808</v>
+        <v>90826</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4632,25 +4624,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4663,10 +4655,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>682714</v>
+        <v>682956</v>
       </c>
       <c r="R35" t="n">
-        <v>6575496</v>
+        <v>6575474</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4726,7 +4718,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112017252</v>
+        <v>112017130</v>
       </c>
       <c r="B36" t="n">
         <v>90814</v>
@@ -4769,10 +4761,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>682711</v>
+        <v>682695</v>
       </c>
       <c r="R36" t="n">
-        <v>6575494</v>
+        <v>6575454</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4832,10 +4824,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112017159</v>
+        <v>112017326</v>
       </c>
       <c r="B37" t="n">
-        <v>90858</v>
+        <v>90808</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4848,21 +4840,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4875,10 +4867,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>682699</v>
+        <v>682714</v>
       </c>
       <c r="R37" t="n">
-        <v>6575482</v>
+        <v>6575496</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4938,10 +4930,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112017413</v>
+        <v>112017159</v>
       </c>
       <c r="B38" t="n">
-        <v>90857</v>
+        <v>90858</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4954,21 +4946,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5448</v>
+        <v>5449</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4981,7 +4973,7 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>682734</v>
+        <v>682699</v>
       </c>
       <c r="R38" t="n">
         <v>6575482</v>
@@ -5044,10 +5036,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112017512</v>
+        <v>112017252</v>
       </c>
       <c r="B39" t="n">
-        <v>88180</v>
+        <v>90814</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5056,37 +5048,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -5095,10 +5079,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>683037</v>
+        <v>682711</v>
       </c>
       <c r="R39" t="n">
-        <v>6575484</v>
+        <v>6575494</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5158,7 +5142,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112017488</v>
+        <v>112017224</v>
       </c>
       <c r="B40" t="n">
         <v>90826</v>
@@ -5201,10 +5185,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>682956</v>
+        <v>682703</v>
       </c>
       <c r="R40" t="n">
-        <v>6575474</v>
+        <v>6575491</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5264,10 +5248,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112017392</v>
+        <v>112017534</v>
       </c>
       <c r="B41" t="n">
-        <v>90858</v>
+        <v>88140</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5276,29 +5260,37 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5449</v>
+        <v>1593</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
@@ -5307,10 +5299,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>682712</v>
+        <v>683073</v>
       </c>
       <c r="R41" t="n">
-        <v>6575458</v>
+        <v>6575478</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5370,10 +5362,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112017224</v>
+        <v>112017430</v>
       </c>
       <c r="B42" t="n">
-        <v>90826</v>
+        <v>90857</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5382,25 +5374,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5413,10 +5405,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>682703</v>
+        <v>682793</v>
       </c>
       <c r="R42" t="n">
-        <v>6575491</v>
+        <v>6575520</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5476,10 +5468,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112017130</v>
+        <v>112017465</v>
       </c>
       <c r="B43" t="n">
-        <v>90814</v>
+        <v>88180</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5488,29 +5480,37 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>682695</v>
+        <v>682896</v>
       </c>
       <c r="R43" t="n">
-        <v>6575454</v>
+        <v>6575514</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>

--- a/artfynd/A 21853-2022.xlsx
+++ b/artfynd/A 21853-2022.xlsx
@@ -4180,7 +4180,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112017447</v>
+        <v>112017130</v>
       </c>
       <c r="B31" t="n">
         <v>90814</v>
@@ -4223,10 +4223,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>682844</v>
+        <v>682695</v>
       </c>
       <c r="R31" t="n">
-        <v>6575514</v>
+        <v>6575454</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4286,10 +4286,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112017392</v>
+        <v>112017326</v>
       </c>
       <c r="B32" t="n">
-        <v>90858</v>
+        <v>90808</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4302,21 +4302,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>682712</v>
+        <v>682714</v>
       </c>
       <c r="R32" t="n">
-        <v>6575458</v>
+        <v>6575496</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4392,10 +4392,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112017512</v>
+        <v>112017447</v>
       </c>
       <c r="B33" t="n">
-        <v>88180</v>
+        <v>90814</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4404,37 +4404,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4443,10 +4435,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>683037</v>
+        <v>682844</v>
       </c>
       <c r="R33" t="n">
-        <v>6575484</v>
+        <v>6575514</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4506,10 +4498,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112017413</v>
+        <v>112017488</v>
       </c>
       <c r="B34" t="n">
-        <v>90857</v>
+        <v>90826</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4518,25 +4510,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4549,10 +4541,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>682734</v>
+        <v>682956</v>
       </c>
       <c r="R34" t="n">
-        <v>6575482</v>
+        <v>6575474</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4612,10 +4604,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112017488</v>
+        <v>112017512</v>
       </c>
       <c r="B35" t="n">
-        <v>90826</v>
+        <v>88180</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4624,29 +4616,37 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>682956</v>
+        <v>683037</v>
       </c>
       <c r="R35" t="n">
-        <v>6575474</v>
+        <v>6575484</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112017130</v>
+        <v>112017413</v>
       </c>
       <c r="B36" t="n">
-        <v>90814</v>
+        <v>90857</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4730,25 +4730,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>682695</v>
+        <v>682734</v>
       </c>
       <c r="R36" t="n">
-        <v>6575454</v>
+        <v>6575482</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4824,10 +4824,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112017326</v>
+        <v>112017252</v>
       </c>
       <c r="B37" t="n">
-        <v>90808</v>
+        <v>90814</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4836,25 +4836,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4867,10 +4867,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>682714</v>
+        <v>682711</v>
       </c>
       <c r="R37" t="n">
-        <v>6575496</v>
+        <v>6575494</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112017252</v>
+        <v>112017534</v>
       </c>
       <c r="B39" t="n">
-        <v>90814</v>
+        <v>88140</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5048,29 +5048,37 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4364</v>
+        <v>1593</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -5079,10 +5087,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>682711</v>
+        <v>683073</v>
       </c>
       <c r="R39" t="n">
-        <v>6575494</v>
+        <v>6575478</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5142,10 +5150,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112017224</v>
+        <v>112017392</v>
       </c>
       <c r="B40" t="n">
-        <v>90826</v>
+        <v>90858</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5154,25 +5162,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5185,10 +5193,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>682703</v>
+        <v>682712</v>
       </c>
       <c r="R40" t="n">
-        <v>6575491</v>
+        <v>6575458</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5248,10 +5256,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112017534</v>
+        <v>112017465</v>
       </c>
       <c r="B41" t="n">
-        <v>88140</v>
+        <v>88180</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5264,26 +5272,26 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1593</v>
+        <v>6276</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5299,10 +5307,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>683073</v>
+        <v>682896</v>
       </c>
       <c r="R41" t="n">
-        <v>6575478</v>
+        <v>6575514</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5362,10 +5370,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112017430</v>
+        <v>112017224</v>
       </c>
       <c r="B42" t="n">
-        <v>90857</v>
+        <v>90826</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5374,25 +5382,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5405,10 +5413,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>682793</v>
+        <v>682703</v>
       </c>
       <c r="R42" t="n">
-        <v>6575520</v>
+        <v>6575491</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5468,10 +5476,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112017465</v>
+        <v>112017430</v>
       </c>
       <c r="B43" t="n">
-        <v>88180</v>
+        <v>90857</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5480,37 +5488,29 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6276</v>
+        <v>5448</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>682896</v>
+        <v>682793</v>
       </c>
       <c r="R43" t="n">
-        <v>6575514</v>
+        <v>6575520</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
